--- a/NformTester/NformTester/Keywordscripts/900.20.50_ConfigureMaintenance.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.20.50_ConfigureMaintenance.xlsx
@@ -3857,117 +3857,117 @@
     <t xml:space="preserve">1) Set the start date and end date by selecting the date time picker. </t>
   </si>
   <si>
+    <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Script Info</t>
+  </si>
+  <si>
+    <t>Script Data</t>
+  </si>
+  <si>
+    <t>Test Object</t>
+  </si>
+  <si>
+    <t>C:\\Nform\\bin\\NformViewer.exe</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Create Date</t>
+  </si>
+  <si>
+    <t>Update Date</t>
+  </si>
+  <si>
+    <t>Running Range</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Database Version</t>
+  </si>
+  <si>
+    <t>Managed device limit</t>
+  </si>
+  <si>
+    <t>Advanced Communications</t>
+  </si>
+  <si>
+    <t>Advanced Notification</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>.NET Framework</t>
+  </si>
+  <si>
+    <t>Sashimi Xi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;A sub_area "test" should be created under area "All Devices";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"All Devices"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"area"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\Nform\user\samples\floor1.png"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Liebert"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;The goal of this test is to check the functionality of " Configure Maintenance" item in context menu of area and device in navigation tree.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>$SNMP_device_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Script Info</t>
-  </si>
-  <si>
-    <t>Script Data</t>
-  </si>
-  <si>
-    <t>Test Object</t>
-  </si>
-  <si>
-    <t>C:\\Nform\\bin\\NformViewer.exe</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>Create Date</t>
-  </si>
-  <si>
-    <t>Update Date</t>
-  </si>
-  <si>
-    <t>Running Range</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Database Version</t>
-  </si>
-  <si>
-    <t>Managed device limit</t>
-  </si>
-  <si>
-    <t>Advanced Communications</t>
-  </si>
-  <si>
-    <t>Advanced Notification</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>Windows</t>
-  </si>
-  <si>
-    <t>.NET Framework</t>
-  </si>
-  <si>
-    <t>Sashimi Xi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;The goal of this test is to check the functionality of " Configure Maintenance" item in context menu of area and device in navigation tree.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;A sub_area "test" should be created under area "All Devices";</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"All Devices"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"area"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"C:\Nform\user\samples\floor1.png"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Liebert"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-21</t>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4152,7 +4152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4201,9 +4201,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4211,35 +4208,7 @@
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -4558,10 +4527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="D52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4580,10 +4549,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>789</v>
@@ -4624,10 +4593,10 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4648,10 +4617,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4682,10 +4651,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -4712,7 +4681,7 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B5" s="8">
         <v>41743</v>
@@ -4736,7 +4705,7 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B6" s="8">
         <v>41779</v>
@@ -4745,7 +4714,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4784,10 +4753,10 @@
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
@@ -4805,11 +4774,11 @@
       <c r="H8" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>856</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>857</v>
+      <c r="I8" s="20" t="s">
+        <v>887</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>888</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>816</v>
@@ -4824,14 +4793,14 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -4921,7 +4890,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -4979,10 +4948,10 @@
         <v>2</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -5011,7 +4980,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="4"/>
@@ -5022,7 +4991,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="4">
@@ -5050,7 +5019,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="4">
@@ -5066,7 +5035,7 @@
         <v>657</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="4"/>
@@ -5079,7 +5048,7 @@
     <row r="18" spans="1:14">
       <c r="A18" s="2"/>
       <c r="B18" s="13" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -5099,8 +5068,8 @@
       <c r="H18" s="4">
         <v>2</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>857</v>
+      <c r="I18" s="20" t="s">
+        <v>888</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -5111,7 +5080,7 @@
     <row r="19" spans="1:14">
       <c r="A19" s="2"/>
       <c r="B19" s="13" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -5138,7 +5107,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>799</v>
@@ -5168,7 +5137,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="4">
@@ -5196,7 +5165,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="4">
@@ -5226,340 +5195,414 @@
       <c r="C23" s="4">
         <v>22</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="22"/>
+      <c r="D23" s="21" t="s">
+        <v>805</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>663</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="14"/>
     </row>
     <row r="24" spans="1:14">
       <c r="C24" s="4">
         <v>23</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="22"/>
+      <c r="D24" s="21" t="s">
+        <v>805</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="14"/>
     </row>
     <row r="25" spans="1:14">
       <c r="C25" s="4">
         <v>24</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="22"/>
+      <c r="D25" s="21" t="s">
+        <v>805</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>665</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>881</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="14"/>
     </row>
     <row r="26" spans="1:14">
       <c r="C26" s="4">
         <v>25</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="22"/>
+      <c r="D26" s="21" t="s">
+        <v>805</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>665</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>882</v>
+      </c>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="14"/>
     </row>
     <row r="27" spans="1:14">
       <c r="C27" s="4">
         <v>26</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="22"/>
+      <c r="D27" s="21" t="s">
+        <v>805</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>665</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>666</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>883</v>
+      </c>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="14"/>
     </row>
     <row r="28" spans="1:14">
       <c r="C28" s="4">
         <v>27</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="22"/>
+      <c r="D28" s="21" t="s">
+        <v>805</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>665</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14">
       <c r="C29" s="4">
         <v>28</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="22"/>
+      <c r="D29" s="21" t="s">
+        <v>805</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="14"/>
     </row>
     <row r="30" spans="1:14">
       <c r="C30" s="4">
         <v>29</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="22"/>
+      <c r="D30" s="21" t="s">
+        <v>805</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="14"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" ht="15">
       <c r="C31" s="4">
         <v>30</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>805</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>663</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
+      <c r="D31" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
       <c r="N31" s="14"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" ht="15">
       <c r="C32" s="4">
         <v>31</v>
       </c>
-      <c r="D32" s="21" t="s">
-        <v>805</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
+      <c r="D32" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
       <c r="N32" s="14"/>
     </row>
     <row r="33" spans="3:14">
       <c r="C33" s="4">
         <v>32</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="E33" s="20" t="s">
-        <v>665</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>884</v>
-      </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
+      <c r="E33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
       <c r="N33" s="14"/>
     </row>
     <row r="34" spans="3:14">
       <c r="C34" s="4">
         <v>33</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>665</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>885</v>
-      </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
+      <c r="E34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
       <c r="N34" s="14"/>
     </row>
     <row r="35" spans="3:14">
       <c r="C35" s="4">
         <v>34</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="E35" s="20" t="s">
-        <v>665</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>4</v>
+      <c r="E35" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>886</v>
-      </c>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
+        <v>888</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
       <c r="N35" s="14"/>
     </row>
     <row r="36" spans="3:14">
       <c r="C36" s="4">
         <v>35</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="E36" s="20" t="s">
-        <v>665</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
+      <c r="E36" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
       <c r="N36" s="14"/>
     </row>
     <row r="37" spans="3:14">
       <c r="C37" s="4">
         <v>36</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="E37" s="20" t="s">
-        <v>585</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
+      <c r="E37" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="J37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
       <c r="N37" s="14"/>
     </row>
     <row r="38" spans="3:14">
       <c r="C38" s="4">
         <v>37</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="E38" s="20" t="s">
-        <v>585</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>4</v>
+      <c r="E38" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>887</v>
-      </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
+        <v>824</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="J38" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
       <c r="N38" s="14"/>
     </row>
     <row r="39" spans="3:14">
       <c r="C39" s="4">
         <v>38</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="19"/>
+      <c r="D39" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -5570,13 +5613,27 @@
       <c r="C40" s="4">
         <v>39</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="4"/>
+      <c r="D40" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="J40" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -5586,13 +5643,27 @@
       <c r="C41" s="4">
         <v>40</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="4"/>
+      <c r="D41" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="J41" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -5602,13 +5673,27 @@
       <c r="C42" s="4">
         <v>41</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="4"/>
+      <c r="D42" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="J42" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -5618,13 +5703,27 @@
       <c r="C43" s="4">
         <v>42</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="4"/>
+      <c r="D43" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="J43" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -5634,13 +5733,21 @@
       <c r="C44" s="4">
         <v>43</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="4"/>
+      <c r="D44" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" s="9"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="9"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
@@ -5650,28 +5757,38 @@
       <c r="C45" s="4">
         <v>44</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="19"/>
+      <c r="D45" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="9"/>
+      <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="14"/>
     </row>
-    <row r="46" spans="3:14">
+    <row r="46" spans="3:14" ht="15">
       <c r="C46" s="4">
         <v>45</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="4"/>
+      <c r="D46" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="E46" s="9"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="19"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -5682,12 +5799,20 @@
       <c r="C47" s="4">
         <v>46</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="19"/>
+      <c r="D47" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -5698,46 +5823,68 @@
       <c r="C48" s="4">
         <v>47</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="19"/>
+      <c r="D48" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="14"/>
     </row>
-    <row r="49" spans="3:14" ht="15">
+    <row r="49" spans="3:14">
       <c r="C49" s="4">
         <v>48</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>823</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="4"/>
+      <c r="D49" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>888</v>
+      </c>
+      <c r="I49" s="9"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="14"/>
     </row>
-    <row r="50" spans="3:14" ht="15">
+    <row r="50" spans="3:14">
       <c r="C50" s="4">
         <v>49</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>827</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="D50" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H50" s="9"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -5753,18 +5900,24 @@
       <c r="D51" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>19</v>
+      <c r="E51" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>22</v>
+        <v>617</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="J51" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
@@ -5777,18 +5930,24 @@
       <c r="D52" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>19</v>
+      <c r="E52" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>79</v>
+        <v>618</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="J52" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
@@ -5802,19 +5961,23 @@
         <v>805</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>857</v>
-      </c>
-      <c r="I53" s="9"/>
-      <c r="J53" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="J53" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
@@ -5828,47 +5991,35 @@
         <v>805</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
+      <c r="J54" s="9"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="14"/>
     </row>
-    <row r="55" spans="3:14">
+    <row r="55" spans="3:14" ht="15">
       <c r="C55" s="4">
         <v>54</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>824</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="J55" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="D55" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
@@ -5885,19 +6036,19 @@
         <v>616</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="J56" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -5915,14 +6066,20 @@
         <v>616</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="J57" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
@@ -5939,7 +6096,7 @@
         <v>616</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>620</v>
+        <v>354</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>7</v>
@@ -5948,10 +6105,10 @@
         <v>825</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="J58" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
@@ -5969,7 +6126,7 @@
         <v>616</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>7</v>
@@ -5978,10 +6135,10 @@
         <v>825</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="J59" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -5999,74 +6156,50 @@
         <v>616</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>354</v>
+        <v>17</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>825</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="J60" s="4" t="b">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H60" s="9"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="9"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="14"/>
     </row>
-    <row r="61" spans="3:14">
+    <row r="61" spans="3:14" ht="15">
       <c r="C61" s="4">
         <v>60</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>825</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="J61" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="D61" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="9"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="14"/>
     </row>
-    <row r="62" spans="3:14">
+    <row r="62" spans="3:14" ht="15">
       <c r="C62" s="4">
         <v>61</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D62" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
       <c r="H62" s="9"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="9"/>
+      <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
@@ -6080,15 +6213,17 @@
         <v>805</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>100</v>
+        <v>620</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H63" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>831</v>
+      </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -6096,15 +6231,19 @@
       <c r="M63" s="4"/>
       <c r="N63" s="14"/>
     </row>
-    <row r="64" spans="3:14" ht="15">
+    <row r="64" spans="3:14">
       <c r="C64" s="4">
         <v>63</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>826</v>
-      </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="4"/>
+      <c r="D64" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2</v>
+      </c>
       <c r="G64" s="4"/>
       <c r="H64" s="9"/>
       <c r="I64" s="4"/>
@@ -6121,18 +6260,24 @@
       <c r="D65" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="E65" s="9" t="s">
-        <v>19</v>
+      <c r="E65" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>22</v>
+        <v>620</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="J65" s="16" t="s">
+        <v>834</v>
+      </c>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
@@ -6143,45 +6288,35 @@
         <v>65</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>835</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="F66" s="4">
+        <v>2</v>
+      </c>
+      <c r="G66" s="4"/>
       <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
+      <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="14"/>
     </row>
-    <row r="67" spans="3:14">
+    <row r="67" spans="3:14" ht="15">
       <c r="C67" s="4">
         <v>66</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>857</v>
-      </c>
-      <c r="I67" s="9"/>
+      <c r="D67" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -6193,19 +6328,21 @@
         <v>67</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>805</v>
+        <v>837</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H68" s="9"/>
-      <c r="I68" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="I68" s="9"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
@@ -6217,27 +6354,27 @@
         <v>68</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>805</v>
+        <v>837</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>616</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="J69" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K69" s="4"/>
+        <v>839</v>
+      </c>
+      <c r="J69" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="K69" s="17"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="14"/>
@@ -6247,26 +6384,22 @@
         <v>69</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>805</v>
+        <v>837</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>616</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>824</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="J70" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>840</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
@@ -6277,68 +6410,72 @@
         <v>70</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>805</v>
+        <v>837</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>616</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="J71" s="4" t="b">
-        <v>0</v>
+        <v>839</v>
+      </c>
+      <c r="J71" s="18" t="s">
+        <v>850</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="14"/>
     </row>
-    <row r="72" spans="3:14">
+    <row r="72" spans="3:14" ht="15">
       <c r="C72" s="4">
         <v>71</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D72" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
       <c r="H72" s="9"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="9"/>
+      <c r="J72" s="17"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="14"/>
     </row>
-    <row r="73" spans="3:14" ht="15">
+    <row r="73" spans="3:14">
       <c r="C73" s="4">
         <v>72</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
+      <c r="D73" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="I73" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" s="17"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
@@ -6349,26 +6486,22 @@
         <v>73</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>805</v>
+        <v>837</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>616</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>620</v>
+        <v>357</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>825</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="J74" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>843</v>
+      </c>
+      <c r="I74" s="4"/>
+      <c r="J74" s="17"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
@@ -6379,26 +6512,20 @@
         <v>74</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>805</v>
+        <v>837</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>616</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>621</v>
+        <v>355</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>825</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="J75" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H75" s="9"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="17"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
@@ -6409,26 +6536,20 @@
         <v>75</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>805</v>
+        <v>837</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>616</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>354</v>
+        <v>623</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>825</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="J76" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H76" s="9"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="17"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
@@ -6439,25 +6560,25 @@
         <v>76</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>805</v>
+        <v>837</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>616</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="J77" s="4" t="b">
-        <v>1</v>
+        <v>839</v>
+      </c>
+      <c r="J77" s="18" t="s">
+        <v>851</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
@@ -6469,56 +6590,78 @@
         <v>77</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>805</v>
+        <v>837</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>616</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>17</v>
+        <v>621</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H78" s="9"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="J78" s="16" t="s">
+        <v>852</v>
+      </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="14"/>
     </row>
-    <row r="79" spans="3:14" ht="15">
+    <row r="79" spans="3:14">
       <c r="C79" s="4">
         <v>78</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>829</v>
-      </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="9"/>
+      <c r="D79" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>844</v>
+      </c>
       <c r="I79" s="4"/>
-      <c r="J79" s="9"/>
+      <c r="J79" s="17"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="14"/>
     </row>
-    <row r="80" spans="3:14" ht="15">
+    <row r="80" spans="3:14">
       <c r="C80" s="4">
         <v>79</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="E80" s="9"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="9"/>
+      <c r="D80" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>845</v>
+      </c>
       <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
+      <c r="J80" s="17"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
@@ -6529,21 +6672,17 @@
         <v>80</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>805</v>
+        <v>835</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>831</v>
-      </c>
-      <c r="I81" s="4"/>
+        <v>836</v>
+      </c>
+      <c r="F81" s="4">
+        <v>2</v>
+      </c>
+      <c r="G81" s="4"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
@@ -6555,48 +6694,44 @@
         <v>81</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="F82" s="4">
-        <v>2</v>
-      </c>
-      <c r="G82" s="4"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
+        <v>616</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="J82" s="9">
+        <v>1440</v>
+      </c>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="14"/>
     </row>
-    <row r="83" spans="3:14">
+    <row r="83" spans="3:14" ht="15">
       <c r="C83" s="4">
         <v>82</v>
       </c>
-      <c r="D83" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>832</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="J83" s="16" t="s">
-        <v>834</v>
-      </c>
+      <c r="D83" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="17"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
@@ -6607,35 +6742,43 @@
         <v>83</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="F84" s="4">
-        <v>2</v>
-      </c>
-      <c r="G84" s="4"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="4"/>
+        <v>616</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="I84" s="9"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
       <c r="N84" s="14"/>
     </row>
-    <row r="85" spans="3:14" ht="15">
+    <row r="85" spans="3:14">
       <c r="C85" s="4">
         <v>84</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="E85" s="9"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="5"/>
+      <c r="D85" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="F85" s="4">
+        <v>2</v>
+      </c>
+      <c r="G85" s="4"/>
       <c r="H85" s="9"/>
-      <c r="I85" s="4"/>
+      <c r="I85" s="9"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
@@ -6653,16 +6796,20 @@
         <v>616</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>838</v>
-      </c>
-      <c r="I86" s="9"/>
-      <c r="J86" s="4"/>
+        <v>818</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>849</v>
+      </c>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
@@ -6679,21 +6826,15 @@
         <v>616</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>621</v>
+        <v>17</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>818</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="J87" s="16" t="s">
-        <v>853</v>
-      </c>
-      <c r="K87" s="17"/>
+        <v>2</v>
+      </c>
+      <c r="H87" s="9"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="14"/>
@@ -6706,707 +6847,239 @@
         <v>837</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>621</v>
+        <v>100</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>840</v>
-      </c>
-      <c r="I88" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H88" s="9"/>
+      <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="14"/>
     </row>
-    <row r="89" spans="3:14">
+    <row r="89" spans="3:14" ht="15">
       <c r="C89" s="4">
         <v>88</v>
       </c>
-      <c r="D89" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>818</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="J89" s="18" t="s">
-        <v>850</v>
-      </c>
+      <c r="D89" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="14"/>
     </row>
-    <row r="90" spans="3:14" ht="15">
+    <row r="90" spans="3:14">
       <c r="C90" s="4">
         <v>89</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
+      <c r="D90" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H90" s="9"/>
       <c r="I90" s="4"/>
-      <c r="J90" s="17"/>
+      <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
-      <c r="N90" s="14"/>
     </row>
     <row r="91" spans="3:14">
       <c r="C91" s="4">
         <v>90</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>616</v>
+        <v>805</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>825</v>
-      </c>
-      <c r="I91" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" s="17"/>
+        <v>2</v>
+      </c>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
-      <c r="N91" s="14"/>
     </row>
     <row r="92" spans="3:14">
       <c r="C92" s="4">
         <v>91</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>616</v>
+        <v>820</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>821</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>357</v>
+        <v>608</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>843</v>
+        <v>3</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>822</v>
       </c>
       <c r="I92" s="4"/>
-      <c r="J92" s="17"/>
+      <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
-      <c r="N92" s="14"/>
     </row>
-    <row r="93" spans="3:14">
+    <row r="93" spans="3:14" ht="14.25">
       <c r="C93" s="4">
         <v>92</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>616</v>
+        <v>820</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>821</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>355</v>
+        <v>213</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H93" s="9"/>
+      <c r="H93" s="15"/>
       <c r="I93" s="4"/>
-      <c r="J93" s="17"/>
+      <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
-      <c r="N93" s="14"/>
     </row>
     <row r="94" spans="3:14">
       <c r="C94" s="4">
         <v>93</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>837</v>
+        <v>820</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>623</v>
+        <v>233</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H94" s="9"/>
       <c r="I94" s="4"/>
-      <c r="J94" s="17"/>
+      <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
-      <c r="N94" s="14"/>
     </row>
     <row r="95" spans="3:14">
       <c r="C95" s="4">
         <v>94</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>616</v>
+        <v>820</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>821</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>620</v>
+        <v>100</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H95" s="9" t="s">
-        <v>818</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="J95" s="18" t="s">
-        <v>851</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
-      <c r="N95" s="14"/>
     </row>
     <row r="96" spans="3:14">
       <c r="C96" s="4">
         <v>95</v>
       </c>
-      <c r="D96" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>818</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="J96" s="16" t="s">
-        <v>852</v>
-      </c>
+      <c r="D96" s="6"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
-      <c r="N96" s="14"/>
     </row>
-    <row r="97" spans="3:14">
+    <row r="97" spans="3:13">
       <c r="C97" s="4">
         <v>96</v>
       </c>
-      <c r="D97" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>844</v>
-      </c>
-      <c r="I97" s="4"/>
-      <c r="J97" s="17"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="4"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
-      <c r="N97" s="14"/>
-    </row>
-    <row r="98" spans="3:14">
-      <c r="C98" s="4">
-        <v>97</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>845</v>
-      </c>
-      <c r="I98" s="4"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="14"/>
-    </row>
-    <row r="99" spans="3:14">
-      <c r="C99" s="4">
-        <v>98</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="F99" s="4">
-        <v>2</v>
-      </c>
-      <c r="G99" s="4"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="14"/>
-    </row>
-    <row r="100" spans="3:14">
-      <c r="C100" s="4">
-        <v>99</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>818</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="J100" s="9">
-        <v>1440</v>
-      </c>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="14"/>
-    </row>
-    <row r="101" spans="3:14" ht="15">
-      <c r="C101" s="4">
-        <v>100</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="14"/>
-    </row>
-    <row r="102" spans="3:14">
-      <c r="C102" s="4">
-        <v>101</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>848</v>
-      </c>
-      <c r="I102" s="9"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="14"/>
-    </row>
-    <row r="103" spans="3:14">
-      <c r="C103" s="4">
-        <v>102</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="F103" s="4">
-        <v>2</v>
-      </c>
-      <c r="G103" s="4"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="14"/>
-    </row>
-    <row r="104" spans="3:14">
-      <c r="C104" s="4">
-        <v>103</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H104" s="9" t="s">
-        <v>818</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="14"/>
-    </row>
-    <row r="105" spans="3:14">
-      <c r="C105" s="4">
-        <v>104</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H105" s="9"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="14"/>
-    </row>
-    <row r="106" spans="3:14">
-      <c r="C106" s="4">
-        <v>105</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H106" s="9"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="14"/>
-    </row>
-    <row r="107" spans="3:14" ht="15">
-      <c r="C107" s="4">
-        <v>106</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>819</v>
-      </c>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
-      <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
-      <c r="M107" s="4"/>
-      <c r="N107" s="14"/>
-    </row>
-    <row r="108" spans="3:14">
-      <c r="C108" s="4">
-        <v>107</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H108" s="9"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
-      <c r="M108" s="4"/>
-    </row>
-    <row r="109" spans="3:14">
-      <c r="C109" s="4">
-        <v>108</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="4"/>
-      <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
-      <c r="M109" s="4"/>
-    </row>
-    <row r="110" spans="3:14">
-      <c r="C110" s="4">
-        <v>109</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>821</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
-      <c r="M110" s="4"/>
-    </row>
-    <row r="111" spans="3:14" ht="14.25">
-      <c r="C111" s="4">
-        <v>110</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>821</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="M111" s="4"/>
-    </row>
-    <row r="112" spans="3:14">
-      <c r="C112" s="4">
-        <v>111</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H112" s="9"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
-    </row>
-    <row r="113" spans="3:13">
-      <c r="C113" s="4">
-        <v>112</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>821</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
-      <c r="M113" s="4"/>
-    </row>
-    <row r="114" spans="3:13">
-      <c r="C114" s="4">
-        <v>113</v>
-      </c>
-      <c r="D114" s="6"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
-      <c r="M114" s="4"/>
-    </row>
-    <row r="115" spans="3:13">
-      <c r="C115" s="4">
-        <v>114</v>
-      </c>
-      <c r="D115" s="6"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
-      <c r="M115" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N107">
-    <cfRule type="cellIs" dxfId="5" priority="15" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N89">
+    <cfRule type="cellIs" dxfId="3" priority="15" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="16" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N99:N105">
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N81:N87">
+    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N23:N30">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D108:D109 D91:D100 D65:D67 D86:D89 G85 D51:D53 D102:D106 D8 D3:D4 D10:D48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D90:D91 D73:D82 D47:D49 D68:D71 G67 D33:D35 D84:D88 D8 D3:D4 D10:D30">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G111:G115 G86:G109 G2:G84">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G93:G97 G68:G91 G2:G66">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F115">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F97">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E115">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E97">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
